--- a/ci-build-0-6-0/ig/CodeSystem-act-type-ror-codesystem.xlsx
+++ b/ci-build-0-6-0/ig/CodeSystem-act-type-ror-codesystem.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T08:37:20+00:00</t>
+    <t>2025-03-18T08:49:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
